--- a/data/soe_tables_20240404.xlsx
+++ b/data/soe_tables_20240404.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/mmacleo2_ed_ac_uk/Documents/Applications/WT Mental Health/LSR1/LSR1_040424/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/mmacleo2_ed_ac_uk/Documents/Applications/WT Mental Health/LSR1/LSR1_210524/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{3DCD2B5E-33DB-4C78-9186-209E9C01CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52D193B-6F5A-4D78-9466-150D9E679CA4}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{3DCD2B5E-33DB-4C78-9186-209E9C01CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6739CE-994D-400F-B1AB-0387560F7745}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="-22185" yWindow="375" windowWidth="14430" windowHeight="15600" activeTab="1" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="TvC" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Sucrose preference</t>
   </si>
   <si>
-    <t>64 experimental comparisons from 37 experiments in 27 publications involving 10 animal strains and reporting data from 1156 animals; SMD = 1.33 (95% CI to 0.88 to 1.79; 95% PrI -0.76 to 3.43) (Section 3.1.3). No heterogeneity was observed.</t>
-  </si>
-  <si>
     <t>Moderate risk of bias likely to exaggerate the effects of dopaminergic agents. All studies had unclear risk of bias for most of the SyRCLE items. Reporting was mostly incomplete; the median number of ARRIVE items reported was 12 (of 22).</t>
   </si>
   <si>
@@ -146,18 +143,9 @@
     <t>Moderate risk of bias likely to exaggerate the effects of anhedonia modelling. No studies preregistered their analyses. There was no evidence for small-study effects.</t>
   </si>
   <si>
-    <t xml:space="preserve">44 experimental comparisons from 37 experiments in 28 publications involving 9 animal strains and reporting data from 777 animals; SMD = -2.30 (95% CI: -3.51 to -1.45; 95% PrI  -6.57 to 1.96). </t>
-  </si>
-  <si>
-    <t>13 experimental comparisons from 5 experiments in 5 publications involving 3 animal strains and reporting data from 191 animals. There were insufficient data to allow multilevel metargeression; conventional random effects meta-analysis gave SMD =0.80 (95% CI: -2.05 to 0.45; 95% PrI -5.26 to 3.66) (Section 2.2.3). We did not explore sources of heterogeneity.</t>
-  </si>
-  <si>
     <t>The included study was at unclear risk of bias (SyRCLE); the number of ARRIVE items reported was 13 (of 22).</t>
   </si>
   <si>
-    <t>13 experimental comparisons from 3 experiments in 3 publications involving 2 animal strains and reporting data from 228 animals. There were insufficient data to allow multilevel metargeression; conventional random effects meta-analysis gave SMD =1.63 (95% CI: 0.67 to 2.59; 95% PrI -1.69 to 4.95) (Section 3.2.3). We did not explore sources of heterogeneity.</t>
-  </si>
-  <si>
     <t>Models using genetic induction – the WAG Riij model</t>
   </si>
   <si>
@@ -228,6 +216,18 @@
   </si>
   <si>
     <t>Moderate risk of bias likely to exaggerate the effects of Dopaminergic agents. The study did not preregistered its analyses.</t>
+  </si>
+  <si>
+    <t>64 experimental comparisons from 36 experiments in 27 publications involving 10 animal strains and reporting data from 1156 animals; SMD = 1.34 (95% CI to 0.88 to 1.79; 95% PrI -0.76 to 3.43) (Section 3.1.3). No heterogeneity was observed.</t>
+  </si>
+  <si>
+    <t>13 experimental comparisons from 3 experiments in 3 publications involving 2 animal strains and reporting data from 228 animals. There were insufficient data to allow multilevel metaregression; conventional random effects meta-analysis gave SMD =1.63 (95% CI: 0.67 to 2.59; 95% PrI -1.69 to 4.95) (Section 3.2.3). We did not explore sources of heterogeneity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 experimental comparisons from 35 experiments in 26 publications involving 9 animal strains and reporting data from 739 animals; SMD = -2.07 (95% CI: -2.74 to -1.40; 95% PrI  -5.06 to 0.92). </t>
+  </si>
+  <si>
+    <t>7 experimental comparisons from 4 experiments in 4 publications involving 3 animal strains and reporting data from 119 animals. There were insufficient data to allow multilevel metargeression; conventional random effects meta-analysis gave SMD = -2.27 (95% CI: -3.87 to -0.67; 95% PrI -6.47 to 1.93) (Section 2.2.3). We did not explore sources of heterogeneity.</t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -797,13 +797,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>24</v>
@@ -814,16 +814,16 @@
     </row>
     <row r="3" spans="1:6" ht="248.25" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2502A7F1-62AA-1544-B3B9-07F305A4B185}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -904,13 +904,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="3" spans="1:6" ht="204.75" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -1076,10 +1076,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1088,13 +1088,13 @@
         <v>20</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>20</v>
@@ -1108,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1132,48 +1132,48 @@
     <row r="5" spans="1:10" ht="77.25" thickBot="1">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="153.75" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J6" s="16"/>
     </row>
@@ -1182,31 +1182,31 @@
         <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="115.5" thickBot="1">
@@ -1214,25 +1214,25 @@
         <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>20</v>
